--- a/data/barbesV2.xlsx
+++ b/data/barbesV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmoussay\Documents\Stage M1\SensoryDataScience\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DFDC46-0F7D-4F6F-9FBC-EED17EF55B4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EE599B-6BE8-48FE-878A-024DF9C9F459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{72E9D936-48B8-49FF-A876-BD1D6CE3C3E8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>Juge</t>
   </si>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>hipster;tốt_bụng;tiếng_Nga</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>ăàằầ;ổỗộ;ảãạẩ</t>
+  </si>
+  <si>
+    <t>test1;test2;test3</t>
+  </si>
+  <si>
+    <t>ửữựứ;ởỡợố;ỉĩịí</t>
+  </si>
+  <si>
+    <t>ỂỄỆ;ẢÃẠ;ỖỞỠỢ</t>
   </si>
 </sst>
 </file>
@@ -511,7 +526,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,17 +592,17 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -595,13 +610,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -609,104 +624,154 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+      <c r="A9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>

--- a/data/barbesV2.xlsx
+++ b/data/barbesV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmoussay\Documents\Stage M1\SensoryDataScience\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EE599B-6BE8-48FE-878A-024DF9C9F459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DEB072-B981-46F5-8F4C-E51D6F8280F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{72E9D936-48B8-49FF-A876-BD1D6CE3C3E8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Juge</t>
   </si>
@@ -130,21 +130,6 @@
   </si>
   <si>
     <t>hipster;tốt_bụng;tiếng_Nga</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>ăàằầ;ổỗộ;ảãạẩ</t>
-  </si>
-  <si>
-    <t>test1;test2;test3</t>
-  </si>
-  <si>
-    <t>ửữựứ;ởỡợố;ỉĩịí</t>
-  </si>
-  <si>
-    <t>ỂỄỆ;ẢÃẠ;ỖỞỠỢ</t>
   </si>
 </sst>
 </file>
@@ -526,7 +511,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,17 +577,17 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -610,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -624,154 +609,104 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
